--- a/Maven23June/target/test-classes/AppTest.xlsx
+++ b/Maven23June/target/test-classes/AppTest.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaWorkspace\Maven23June\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7E6DA7-B360-4E30-A0C5-0E8D9F7E3BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1763BB4-2AD1-47A7-AE24-9024FCBB2417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TC" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>url</t>
   </si>
@@ -59,7 +59,37 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Passed</t>
+    <t>AppURL</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ExpectedTitle</t>
+  </si>
+  <si>
+    <t>ActualTitle</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>https://demo.vtiger.com/vtigercrm/index.php</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
   </si>
   <si>
     <t>Failed</t>
@@ -87,15 +117,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,14 +139,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -395,7 +455,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -442,9 +502,6 @@
       </c>
       <c r="C3">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -470,12 +527,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A900E8A7-4B91-4427-8216-5D97EE218806}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="61.77734375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.6640625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.21875" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1234</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>123</v>
+      </c>
+      <c r="C7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{0CE8CE86-4375-4E78-80B3-0F5CE54DF8A7}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{91B8B852-A9D5-44C7-A820-A624203BF85F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
